--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_6_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_6_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9030.591998064694</v>
+        <v>1797087.807614871</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9030.591998064694</v>
+        <v>1797087.807614871</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>34136.31568892032</v>
+        <v>2048178.941335218</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>34136.31568892032</v>
+        <v>2048178.941335218</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1418463088.643871</v>
+        <v>55845399.29110359</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12419.36607068708</v>
+        <v>1251446.693593909</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24327.13158262314</v>
+        <v>2416370.455901559</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>36234.89709455916</v>
+        <v>3581294.21820921</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>49434.3568730421</v>
+        <v>4676227.762536719</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>62633.816651525</v>
+        <v>5771161.306864229</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>75833.2764300079</v>
+        <v>6866094.851191735</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>89587.47257408622</v>
+        <v>7976432.005298793</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>103264.2636438955</v>
+        <v>9071365.549626296</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>116941.0547137047</v>
+        <v>10166299.0939538</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>130617.8457835139</v>
+        <v>11261232.6382813</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>143953.3781005041</v>
+        <v>12371007.33469695</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>156965.2065709408</v>
+        <v>13496118.4623079</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>169844.6222984039</v>
+        <v>14628089.67873151</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>183521.4133682132</v>
+        <v>15723023.22305902</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>196643.468072427</v>
+        <v>16802553.15760699</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>217</v>
@@ -27055,10 +27055,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>217</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,16 +27144,16 @@
         <v>1048</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
